--- a/biology/Botanique/Dialium_guianense/Dialium_guianense.xlsx
+++ b/biology/Botanique/Dialium_guianense/Dialium_guianense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dialium guianense est une espèce d'arbre néotropical appartenant à la famille des Fabaceae.
-Il est connu en Guyane comme Ti-koubari (Créole), Wap-kamwi-puvemna (Palikur), Takulu wɨla (Teko), Wɨla takulu (Wayãpi), Beiju-de côco, Cururu, Jutaí-mirim, Parajuba, Pau-ferro, Pororoca (Portugais), Pikin loca[3], Kouata loca (Nenge tongo)[4], Arouma[5] ou Arounier de la Guyane.
+Il est connu en Guyane comme Ti-koubari (Créole), Wap-kamwi-puvemna (Palikur), Takulu wɨla (Teko), Wɨla takulu (Wayãpi), Beiju-de côco, Cururu, Jutaí-mirim, Parajuba, Pau-ferro, Pororoca (Portugais), Pikin loca, Kouata loca (Nenge tongo), Arouma ou Arounier de la Guyane.
 Ailleurs, on l'appelle Gupaque, Palo de Lacandon (Mexique), 
 Chate, Cuatchi, Paleta, Palo de Lacandon, Tamarindo prieto (Guatémala), 
 Canillo, Paleta, Palete negro, Tamarindo prieto (Honduras), 
@@ -492,8 +504,8 @@
 Comenegro, Tamarindo montero (Nicaragua), 
 Alfenique (Costa-Rica), 
 Alfenique, Fria, Sangrillo negro, Tamarindo de montana (Panama), 
-Cururu, Jutai mirim, Jutai pebo, Parajuba, Pau-ferro, Pororoca (Brésil)[6], 
-ou encore au Venezuela sous les noms de Chipe, Cocutundek, Iktin-yek, Kakaten (Arekuna), Motua-aji, Yeimoji (Yanomami) ou Bergantín, Tamarindo, Cacho[7].
+Cururu, Jutai mirim, Jutai pebo, Parajuba, Pau-ferro, Pororoca (Brésil), 
+ou encore au Venezuela sous les noms de Chipe, Cocutundek, Iktin-yek, Kakaten (Arekuna), Motua-aji, Yeimoji (Yanomami) ou Bergantín, Tamarindo, Cacho.
 </t>
         </is>
       </c>
@@ -522,15 +534,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dialium guianense est un grand arbre atteignant jusqu'à 30 m de haut.
-Son bois est de couleur brun rouge foncé, très lourd (densité : 1 à 1,15), avec un large aubier jaunâtre moins lourd (densité : 0,70)[4].
+Son bois est de couleur brun rouge foncé, très lourd (densité : 1 à 1,15), avec un large aubier jaunâtre moins lourd (densité : 0,70).
 Les feuilles sont imparipennées, mesurant de 5-10 x 2-3 cm, à 5-7 folioles alternes de forme ovale, oblongue ou lancéolées, acuminées coriaces glabres.
 Les inflorescences sont terminales et axillaires, en panicules formées de grappes, avec des bractées et bractéoles caduques.
 Les fleurs blanches ou verdâtres pédicellées, comportent 5 sépales sub-libres imbriqués, 0 pétales, et 2 étamines.
 Les anthères sont basifixes (non versatiles). L'ovaire est subsessile, en général biovulé, avec un style à petit stigmate terminal.
-Les fruits sont des gousses de forme ovoïde, longs d'environ 1,5-2,5 cm, de couleur rouge à brune, en panicules larges et lâches, subsessile, obovoïde crustacée pulpeuse indéhiscente à 1-2 graines, albumen présent[7],[8],[5],[9].
+Les fruits sont des gousses de forme ovoïde, longs d'environ 1,5-2,5 cm, de couleur rouge à brune, en panicules larges et lâches, subsessile, obovoïde crustacée pulpeuse indéhiscente à 1-2 graines, albumen présent.
 </t>
         </is>
       </c>
@@ -559,9 +573,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dialium guianense est présent depuis depuis Veracruz au sud du Mexique, jusqu'à Espírito Santo au Brésil, en passant par l'Amérique centrale, la Colombie, le Venezuela (Bolívar, Amazonas, Táchira, Zulia), le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou et la Bolivie[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dialium guianense est présent depuis depuis Veracruz au sud du Mexique, jusqu'à Espírito Santo au Brésil, en passant par l'Amérique centrale, la Colombie, le Venezuela (Bolívar, Amazonas, Táchira, Zulia), le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou et la Bolivie.
 </t>
         </is>
       </c>
@@ -590,21 +606,23 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>On rencontre Dialium guianense dans les forêts-galeries, les forêts sempervirentes de plaine à montagnardes inférieures, à 50-900 m d'altitude[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>On rencontre Dialium guianense dans les forêts-galeries, les forêts sempervirentes de plaine à montagnardes inférieures, à 50-900 m d'altitude.
 Plusieurs aspects ont été étudiés :
-les structures macro et microscopique de son bois[10],[4],
-la croissance de ses plantules sous serre[11],
-le parasitage de ses feuilles par le champignon Bellulicauda dialii[12],
-sa défense contre les prédateurs[13],
-la prédation et la dissémination de ses graines par les primates[14],[15],[16],[17],
-la viabilité de ses graines[18],
-sa taxonomie[19],
-les propriétés mécaniques de son bois[20],
-sa place dans la dynamique de regénération forestière[21],[22],
-la germination de ses graines[23],
-la composition de la cendre de son bois[24]</t>
+les structures macro et microscopique de son bois
+la croissance de ses plantules sous serre,
+le parasitage de ses feuilles par le champignon Bellulicauda dialii,
+sa défense contre les prédateurs,
+la prédation et la dissémination de ses graines par les primates
+la viabilité de ses graines,
+sa taxonomie,
+les propriétés mécaniques de son bois,
+sa place dans la dynamique de regénération forestière
+la germination de ses graines,
+la composition de la cendre de son bois</t>
         </is>
       </c>
     </row>
@@ -632,14 +650,16 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arille autour des graines de Dialium guianense est comestible et a un goût acide et acidulé rappelant le tamarin[7].
-Il peut être consommé cru, mais est surtout utilisé pour la confection de boissons[6].
-Dialium guianense est cultivé pour ses fruits au Brésil[25].
-Son bois est excellent[10], extrêmement dur et abrasif[26],[27].
-On extrait une huile essentielle à partir des feuilles de Dialium guianense[28]
-Dialium guianense est une des espèces les plus employées par les communautés rurales de Rio Formoso au Brésil (forêt Atlantique)[29].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arille autour des graines de Dialium guianense est comestible et a un goût acide et acidulé rappelant le tamarin.
+Il peut être consommé cru, mais est surtout utilisé pour la confection de boissons.
+Dialium guianense est cultivé pour ses fruits au Brésil.
+Son bois est excellent, extrêmement dur et abrasif,.
+On extrait une huile essentielle à partir des feuilles de Dialium guianense
+Dialium guianense est une des espèces les plus employées par les communautés rurales de Rio Formoso au Brésil (forêt Atlantique).
 </t>
         </is>
       </c>
@@ -668,9 +688,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[30] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « 1. AROUNA (guianensis.) (Tabula 5.)
 Arbor triginta, aut quadraginta-pedalis, ad ſummitatem ramoſa, ramulis hinc &amp; indè divaricatis. Folia alterna, imparipinnata ; foliolis alternis, ovatis, obtusè acuminatis, glabris, ſtipulatis. Stipulæ binæ, deciduæ, ad baſim petioli communis. Flores numeroſi, virides ; racemi paniculatim diſpoſiti. Capsula fuſca, glabra, ſulcata. Semina ſubrotunda, glabra, pulpâ acidâ &amp; rufeſcente obvoluta.
 Nomen Caribæum Arouna.
